--- a/biology/Zoologie/Cambarellus_patzcuarensis/Cambarellus_patzcuarensis.xlsx
+++ b/biology/Zoologie/Cambarellus_patzcuarensis/Cambarellus_patzcuarensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cambarellus patzcuarensis, parfois appelée Écrevisse naine du Mexique ou Écrevisse à deux bandes, est une espèce d'écrevisses naines de la famille des Cambaridae. Elle est originaire du Mexique.
 Il en existe une mutation de couleur orange, Cambarellus patzcuarensis var. "Orange", CPO, très appréciée en aquariophilie. C'est l'une des rares espèces de son genre de cette couleur.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce porte le nom du lac Pátzcuaro, à 2 035 mètres d'altitude, dans l'État mexicain de Michoacán. En plus du lac Pátzcuaro, elle est également présente dans les sources de Chapultepec, Opopeo et Tzurumutaro.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les écrevisses vivent dans la végétation et sont très actives la journée car toujours à la recherche de nourriture.
 Cambarellus patzcuarensis est une écrevisse naine d'eau douce de 4 à 5 cm de long, y compris les pinces.
